--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -57,9 +57,6 @@
     <t>Abstandsrollen PA M5 6mm, 10stk</t>
   </si>
   <si>
-    <t>V-Rollen Kit</t>
-  </si>
-  <si>
     <t>Pully 20Z GT2</t>
   </si>
   <si>
@@ -73,6 +70,9 @@
   </si>
   <si>
     <t>Summe:</t>
+  </si>
+  <si>
+    <t>Kugellager 625 2RS</t>
   </si>
 </sst>
 </file>
@@ -430,7 +430,7 @@
   <dimension ref="A2:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,7 +451,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -503,7 +503,7 @@
         <v>4.5</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" ref="E6:E16" si="0">C6*D6</f>
+        <f t="shared" ref="E6:E14" si="0">C6*D6</f>
         <v>9</v>
       </c>
     </row>
@@ -551,14 +551,14 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D9" s="2">
         <v>1.49</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="0"/>
-        <v>5.96</v>
+        <v>11.92</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -584,17 +584,18 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <f>4*4*2</f>
+        <v>32</v>
       </c>
       <c r="D11" s="2">
-        <v>4.99</v>
+        <v>0.98</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="0"/>
-        <v>64.87</v>
+        <v>31.36</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -602,7 +603,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -620,7 +621,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13">
         <v>250</v>
@@ -638,7 +639,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -653,11 +654,11 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D15" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E15" s="1">
         <f>SUM(E5:E14)</f>
-        <v>197.13</v>
+        <v>169.58</v>
       </c>
     </row>
   </sheetData>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
   <si>
     <t>BOM</t>
   </si>
@@ -63,16 +63,97 @@
     <t>GT2 Zahnriemen</t>
   </si>
   <si>
-    <t>Umlenkrollen-Kit</t>
-  </si>
-  <si>
     <t>myhobby-cnc.de</t>
   </si>
   <si>
     <t>Summe:</t>
   </si>
   <si>
-    <t>Kugellager 625 2RS</t>
+    <t>Shop</t>
+  </si>
+  <si>
+    <t>aluprofile-onlineshop.de</t>
+  </si>
+  <si>
+    <t>Profil System B Nut 6 20x20mm</t>
+  </si>
+  <si>
+    <t>Länge</t>
+  </si>
+  <si>
+    <t>Anzahl</t>
+  </si>
+  <si>
+    <t>Summe</t>
+  </si>
+  <si>
+    <t>Profil System B Nut 6 Winkel 20x20</t>
+  </si>
+  <si>
+    <t>Profil System B Nut 6 20x40 - 100 mm</t>
+  </si>
+  <si>
+    <t>Profil System B Nut 6 20x20 - 100 mm</t>
+  </si>
+  <si>
+    <t>Profil System B Nut 6 Winkel 20x40</t>
+  </si>
+  <si>
+    <t>Profil System B Nut 6 Innenwinkel</t>
+  </si>
+  <si>
+    <t>Hammermutter N6 M4</t>
+  </si>
+  <si>
+    <t>Profilabdeckkappe 20x20 Nut 6</t>
+  </si>
+  <si>
+    <t>Abdeckprofil Nut 6B - schwarz</t>
+  </si>
+  <si>
+    <t>Zylinderschraube M4x8</t>
+  </si>
+  <si>
+    <t>Kugellager 625 2ZZ</t>
+  </si>
+  <si>
+    <t>Schleppkette Druckbett</t>
+  </si>
+  <si>
+    <t>Schleppkette Z-Achse</t>
+  </si>
+  <si>
+    <t>Schleppkette X-Achse</t>
+  </si>
+  <si>
+    <t>Befestigung Y-Motor</t>
+  </si>
+  <si>
+    <t>Schrittmotortreiber</t>
+  </si>
+  <si>
+    <t>Klemmleiste</t>
+  </si>
+  <si>
+    <t>Hotends</t>
+  </si>
+  <si>
+    <t>Extruder</t>
+  </si>
+  <si>
+    <t>Heizbett</t>
+  </si>
+  <si>
+    <t>Dämpfungselemente</t>
+  </si>
+  <si>
+    <t>Einhausung</t>
+  </si>
+  <si>
+    <t>Türscharniere</t>
+  </si>
+  <si>
+    <t>Magnetschnapper</t>
   </si>
 </sst>
 </file>
@@ -84,7 +165,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_ [$€-2]\ * #,##0.00_ ;_ [$€-2]\ * \-#,##0.00_ ;_ [$€-2]\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +174,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -108,7 +197,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -116,15 +205,204 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -427,242 +705,1063 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E15"/>
+  <dimension ref="A1:J66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="2"/>
-    <col min="5" max="5" width="14.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="3"/>
+    <col min="5" max="5" width="11.42578125" style="2"/>
+    <col min="6" max="6" width="14.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="7"/>
+    </row>
+    <row r="3" spans="1:10" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F3" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="12">
+        <v>1001</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C5">
+      <c r="D4" s="12">
         <v>1600</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E4" s="14">
         <v>0.02</v>
       </c>
-      <c r="E5" s="1">
-        <f>C5*D5</f>
+      <c r="F4" s="15">
+        <f>D4*E4</f>
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="24"/>
+      <c r="B5" s="8">
+        <v>1002</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="8">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="E5" s="10">
         <v>4.5</v>
       </c>
-      <c r="E6" s="1">
-        <f t="shared" ref="E6:E14" si="0">C6*D6</f>
+      <c r="F5" s="17">
+        <f t="shared" ref="F5:F12" si="0">D5*E5</f>
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="24"/>
+      <c r="B6" s="8">
+        <v>1003</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C7">
+      <c r="D6" s="8">
         <v>4</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E6" s="10">
         <v>7.49</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F6" s="17">
         <f t="shared" si="0"/>
         <v>29.96</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="24"/>
+      <c r="B7" s="8">
+        <v>1004</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C8">
+      <c r="D7" s="8">
         <v>2</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E7" s="10">
         <v>2.4900000000000002</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F7" s="17">
         <f t="shared" si="0"/>
         <v>4.9800000000000004</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="24"/>
+      <c r="B8" s="8">
+        <v>1005</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C9">
+      <c r="D8" s="8">
         <v>8</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E8" s="10">
         <v>1.49</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F8" s="17">
         <f t="shared" si="0"/>
         <v>11.92</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="H8">
+        <v>100</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <f>H8*I8</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="24"/>
+      <c r="B9" s="8">
+        <v>1006</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C10">
+      <c r="D9" s="8">
         <v>1</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E9" s="10">
         <v>1.4</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F9" s="17">
         <f t="shared" si="0"/>
         <v>1.4</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11">
-        <f>4*4*2</f>
+      <c r="H9">
+        <v>300</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <f t="shared" ref="J9:J10" si="1">H9*I9</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="24"/>
+      <c r="B10" s="8">
+        <v>1007</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="2">
-        <v>0.98</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="D10" s="8">
+        <f>4*4*2+2*2</f>
+        <v>36</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0.88</v>
+      </c>
+      <c r="F10" s="17">
         <f t="shared" si="0"/>
-        <v>31.36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
+        <v>31.68</v>
+      </c>
+      <c r="H10">
+        <v>400</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="24"/>
+      <c r="B11" s="8">
+        <v>1008</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C12">
+      <c r="D11" s="8">
         <v>2</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E11" s="10">
         <v>7.49</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F11" s="17">
         <f t="shared" si="0"/>
         <v>14.98</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="I11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11">
+        <f>SUM(J8:J10)</f>
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="25"/>
+      <c r="B12" s="19">
+        <v>1009</v>
+      </c>
+      <c r="C12" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C13">
+      <c r="D12" s="19">
         <v>250</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E12" s="21">
         <v>0.09</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F12" s="22">
         <f t="shared" si="0"/>
         <v>22.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>10</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="1">
+        <f>SUM(F4:F12)</f>
+        <v>158.42000000000002</v>
+      </c>
+      <c r="H13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="12">
+        <v>2001</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="12">
+        <v>13</v>
+      </c>
+      <c r="E15" s="14">
+        <v>0.45</v>
+      </c>
+      <c r="F15" s="15">
+        <f t="shared" ref="F15" si="2">D15*E15</f>
+        <v>5.8500000000000005</v>
+      </c>
+      <c r="H15">
+        <v>400</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <f t="shared" ref="J15" si="3">H15*I15</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="27"/>
+      <c r="B16" s="8">
+        <v>2002</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="8">
+        <v>17</v>
+      </c>
+      <c r="E16" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="F16" s="17">
+        <f t="shared" ref="F16:F45" si="4">D16*E16</f>
+        <v>13.600000000000001</v>
+      </c>
+      <c r="I16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16">
+        <f>SUM(J15:J15)</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="27"/>
+      <c r="B17" s="8">
+        <v>2003</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="8">
+        <v>24</v>
+      </c>
+      <c r="E17" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="F17" s="17">
+        <f t="shared" si="4"/>
+        <v>16.799999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="27"/>
+      <c r="B18" s="8">
+        <v>2004</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="8">
+        <v>4</v>
+      </c>
+      <c r="E18" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F18" s="17">
+        <f t="shared" si="4"/>
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="27"/>
+      <c r="B19" s="8">
+        <v>2005</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="8">
+        <v>6</v>
+      </c>
+      <c r="E19" s="10">
+        <v>1.59</v>
+      </c>
+      <c r="F19" s="17">
+        <f t="shared" si="4"/>
+        <v>9.5400000000000009</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="27"/>
+      <c r="B20" s="8">
+        <v>2006</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="8">
+        <v>150</v>
+      </c>
+      <c r="E20" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="F20" s="17">
+        <f t="shared" si="4"/>
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="27"/>
+      <c r="B21" s="8">
+        <v>2007</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="8">
+        <v>14</v>
+      </c>
+      <c r="E21" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="F21" s="17">
+        <f t="shared" si="4"/>
+        <v>5.6000000000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="27"/>
+      <c r="B22" s="8">
+        <v>2008</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="8">
+        <v>2</v>
+      </c>
+      <c r="E22" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="F22" s="17">
+        <f t="shared" si="4"/>
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="28"/>
+      <c r="B23" s="19">
+        <v>2009</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="19">
+        <v>150</v>
+      </c>
+      <c r="E23" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="F23" s="22">
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14" s="2">
-        <v>5.74</v>
-      </c>
-      <c r="E14" s="1">
-        <f t="shared" si="0"/>
-        <v>11.48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="1">
-        <f>SUM(E5:E14)</f>
-        <v>169.58</v>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="1">
+        <f>SUM(F15:F23)</f>
+        <v>111.88999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="12">
+        <v>3001</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="16"/>
+      <c r="B27" s="8">
+        <v>3002</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="16"/>
+      <c r="B28" s="8">
+        <v>3003</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="16"/>
+      <c r="B29" s="8">
+        <v>3004</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="16"/>
+      <c r="B30" s="8">
+        <v>3005</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="16"/>
+      <c r="B31" s="8">
+        <v>3006</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="16"/>
+      <c r="B32" s="8">
+        <v>3007</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="16"/>
+      <c r="B33" s="8">
+        <v>3008</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="16"/>
+      <c r="B34" s="8">
+        <v>3009</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="16"/>
+      <c r="B35" s="8">
+        <v>3010</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="16"/>
+      <c r="B36" s="8">
+        <v>3011</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="16"/>
+      <c r="B37" s="8">
+        <v>3012</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="16"/>
+      <c r="B38" s="8">
+        <v>3013</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="16"/>
+      <c r="B39" s="8">
+        <v>3014</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="16"/>
+      <c r="B40" s="8">
+        <v>3015</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="16"/>
+      <c r="B41" s="8">
+        <v>3016</v>
+      </c>
+      <c r="C41" s="9"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="16"/>
+      <c r="B42" s="8">
+        <v>3017</v>
+      </c>
+      <c r="C42" s="9"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="16"/>
+      <c r="B43" s="8">
+        <v>3018</v>
+      </c>
+      <c r="C43" s="9"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="16"/>
+      <c r="B44" s="8">
+        <v>3019</v>
+      </c>
+      <c r="C44" s="9"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="16"/>
+      <c r="B45" s="8">
+        <v>3020</v>
+      </c>
+      <c r="C45" s="9"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="16"/>
+      <c r="B46" s="8">
+        <v>3021</v>
+      </c>
+      <c r="C46" s="9"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="17">
+        <f t="shared" ref="F46:F64" si="5">D46*E46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="16"/>
+      <c r="B47" s="8">
+        <v>3022</v>
+      </c>
+      <c r="C47" s="9"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="16"/>
+      <c r="B48" s="8">
+        <v>3023</v>
+      </c>
+      <c r="C48" s="9"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="16"/>
+      <c r="B49" s="8">
+        <v>3024</v>
+      </c>
+      <c r="C49" s="9"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="16"/>
+      <c r="B50" s="8">
+        <v>3025</v>
+      </c>
+      <c r="C50" s="9"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="16"/>
+      <c r="B51" s="8">
+        <v>3026</v>
+      </c>
+      <c r="C51" s="9"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="16"/>
+      <c r="B52" s="8">
+        <v>3027</v>
+      </c>
+      <c r="C52" s="9"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="16"/>
+      <c r="B53" s="8">
+        <v>3028</v>
+      </c>
+      <c r="C53" s="9"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="16"/>
+      <c r="B54" s="8">
+        <v>3029</v>
+      </c>
+      <c r="C54" s="9"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="16"/>
+      <c r="B55" s="8">
+        <v>3030</v>
+      </c>
+      <c r="C55" s="9"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="16"/>
+      <c r="B56" s="8">
+        <v>3031</v>
+      </c>
+      <c r="C56" s="9"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="16"/>
+      <c r="B57" s="8">
+        <v>3032</v>
+      </c>
+      <c r="C57" s="9"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="16"/>
+      <c r="B58" s="8">
+        <v>3033</v>
+      </c>
+      <c r="C58" s="9"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="16"/>
+      <c r="B59" s="8">
+        <v>3034</v>
+      </c>
+      <c r="C59" s="9"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="16"/>
+      <c r="B60" s="8">
+        <v>3035</v>
+      </c>
+      <c r="C60" s="9"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="16"/>
+      <c r="B61" s="8">
+        <v>3036</v>
+      </c>
+      <c r="C61" s="9"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="16"/>
+      <c r="B62" s="8">
+        <v>3037</v>
+      </c>
+      <c r="C62" s="9"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="16"/>
+      <c r="B63" s="8">
+        <v>3038</v>
+      </c>
+      <c r="C63" s="9"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="16"/>
+      <c r="B64" s="8">
+        <v>3039</v>
+      </c>
+      <c r="C64" s="9"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="18"/>
+      <c r="B65" s="19">
+        <v>3040</v>
+      </c>
+      <c r="C65" s="20"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="22">
+        <f t="shared" ref="F65" si="6">D65*E65</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E66" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F66" s="1">
+        <f>SUM(F26:F65)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A4:A12"/>
+    <mergeCell ref="A15:A23"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
